--- a/result/metrics_values/mall-swarm.xlsx
+++ b/result/metrics_values/mall-swarm.xlsx
@@ -865,7 +865,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.0001615282395774265</t>
+          <t>0.00035452520676794214</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>8.683520220749258e-05</t>
+          <t>6.700674667422045e-05</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.0006464556593960166</t>
+          <t>0.0006045374836750239</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>8.87314347097146e-05</t>
+          <t>0.00011287540173595389</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/result/metrics_values/mall-swarm.xlsx
+++ b/result/metrics_values/mall-swarm.xlsx
@@ -484,163 +484,163 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mall-admin</t>
+          <t>mall-search</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.03274682306940371</t>
+          <t>1.0036363636363637</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.05032258064516129</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.8513520894411576e-05</t>
+          <t>0.0002937572946647357</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.1745055017940585e-05</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mall-search</t>
+          <t>mall-auth</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.0036363636363637</t>
+          <t>0.5036764705882353</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.04353741496598639</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.0002937572946647357</t>
+          <t>0.0002191246953802412</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.000319166125804964</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mall-demo</t>
+          <t>mall-admin</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.25092936802973975</t>
+          <t>0.03274682306940371</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.12411347517730498</t>
+          <t>0.05032258064516129</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.00010466095463704666</t>
+          <t>7.0586487816494e-05</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.0006769703941413946</t>
+          <t>2.1522371061047186e-05</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mall-auth</t>
+          <t>mall-demo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -650,22 +650,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.5036764705882353</t>
+          <t>0.25092936802973975</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.04353741496598639</t>
+          <t>0.12411347517730498</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.00022135808447731913</t>
+          <t>0.00010466095463704666</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.000319166125804964</t>
+          <t>0.0006327147736775958</t>
         </is>
       </c>
     </row>
@@ -707,12 +707,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9.538629231294319e-05</t>
+          <t>0.00010902578593018985</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2.633546890806883e-05</t>
+          <t>2.6073623289790727e-05</t>
         </is>
       </c>
     </row>
@@ -760,12 +760,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mall-admin</t>
+          <t>mall-search</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mall-search</t>
+          <t>mall-auth</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -782,12 +782,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>mall-search</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>mall-admin</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>mall-demo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -804,29 +804,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mall-admin</t>
+          <t>mall-search</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mall-auth</t>
+          <t>mall-demo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.00019135648415787715</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.5032258064516129</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mall-admin</t>
+          <t>mall-search</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -848,12 +848,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>mall-auth</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>mall-search</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mall-admin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -870,34 +870,34 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mall-search</t>
+          <t>mall-auth</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mall-demo</t>
+          <t>mall-admin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.000356812466166445</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.034408602150537634</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mall-search</t>
+          <t>mall-auth</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mall-auth</t>
+          <t>mall-demo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mall-search</t>
+          <t>mall-auth</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -924,68 +924,68 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0003621523444040374</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.08205128205128205</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mall-demo</t>
+          <t>mall-admin</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>mall-admin</t>
+          <t>mall-search</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.00022029052218225189</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.034050179211469536</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mall-demo</t>
+          <t>mall-admin</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>mall-search</t>
+          <t>mall-auth</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.004487958668489017</t>
+          <t>0.00018939686533721523</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.0555555555555556</t>
+          <t>0.5032258064516129</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>mall-admin</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>mall-demo</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>mall-auth</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1002,7 +1002,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mall-demo</t>
+          <t>mall-admin</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1012,46 +1012,46 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.0007580540720293375</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.1623931623931624</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>mall-auth</t>
+          <t>mall-demo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>mall-admin</t>
+          <t>mall-search</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.00016257035725211958</t>
+          <t>0.004487958668489017</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.034408602150537634</t>
+          <t>1.0555555555555556</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>mall-demo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>mall-auth</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>mall-search</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1068,29 +1068,29 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mall-auth</t>
+          <t>mall-demo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mall-demo</t>
+          <t>mall-admin</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00022029052218225189</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.034050179211469536</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mall-auth</t>
+          <t>mall-demo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.0003621523444040374</t>
+          <t>0.000621217728296442</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.08205128205128205</t>
+          <t>0.1623931623931624</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mall-admin</t>
+          <t>mall-search</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1139,17 +1139,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>mall-search</t>
+          <t>mall-auth</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00034764831053054305</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.5057471264367817</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>mall-demo</t>
+          <t>mall-admin</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>mall-auth</t>
+          <t>mall-demo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.0003511395854409178</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.5057471264367817</t>
+          <t>0</t>
         </is>
       </c>
     </row>
